--- a/results/real_feature_importances.xlsx
+++ b/results/real_feature_importances.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/majidmohammadi/surfdrive/Research/GP/orthogonal-additive-gaussian-processes-main/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1CFB7D2-DB59-1F44-87B4-F4669A2EB1FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519418D7-B04C-A941-BFF3-3843044E07A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="500" windowWidth="35780" windowHeight="20320" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60" yWindow="500" windowWidth="35780" windowHeight="20320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sonar" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="128">
   <si>
     <t>Feature Selector</t>
   </si>
@@ -409,6 +409,9 @@
   </si>
   <si>
     <t>HSICLasso</t>
+  </si>
+  <si>
+    <t>AGP-SHAP-SGPR</t>
   </si>
 </sst>
 </file>
@@ -803,8 +806,8 @@
   </sheetPr>
   <dimension ref="A1:BJ8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1015,19 +1018,19 @@
         <v>9.4903660379097466E-3</v>
       </c>
       <c r="E2" s="3">
-        <v>4.5485910050851834E-3</v>
+        <v>4.5485910050851799E-3</v>
       </c>
       <c r="F2" s="3">
-        <v>6.7416037191519763E-3</v>
+        <v>6.7416037191519798E-3</v>
       </c>
       <c r="G2" s="3">
-        <v>8.7199404782655372E-3</v>
+        <v>8.7199404782655407E-3</v>
       </c>
       <c r="H2" s="3">
-        <v>6.5937410370538393E-3</v>
+        <v>6.5937410370538402E-3</v>
       </c>
       <c r="I2" s="3">
-        <v>5.3918898568667559E-3</v>
+        <v>5.3918898568667602E-3</v>
       </c>
       <c r="J2" s="3">
         <v>2.136179820786082E-2</v>
@@ -1203,7 +1206,7 @@
         <v>3.8658567193019432E-2</v>
       </c>
       <c r="E3" s="3">
-        <v>1.8564733135833761E-2</v>
+        <v>1.8564733135833799E-2</v>
       </c>
       <c r="F3" s="3">
         <v>2.731070844008034E-2</v>
@@ -2329,7 +2332,7 @@
   </sheetPr>
   <dimension ref="A1:DP7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="T1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4881,10 +4884,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:CY8"/>
+  <dimension ref="A1:CY9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:CY8"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7379,6 +7382,317 @@
       </c>
       <c r="CY8">
         <v>4.4751575731009387E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9">
+        <v>73.750143527984619</v>
+      </c>
+      <c r="C9">
+        <v>7.9702488745796712E-8</v>
+      </c>
+      <c r="D9">
+        <v>1.276621953327381</v>
+      </c>
+      <c r="E9">
+        <v>0.97466223104472816</v>
+      </c>
+      <c r="F9">
+        <v>0.85281308380932985</v>
+      </c>
+      <c r="G9">
+        <v>1.4452628530692</v>
+      </c>
+      <c r="H9">
+        <v>1.2132635552066671</v>
+      </c>
+      <c r="I9">
+        <v>18.597444462196769</v>
+      </c>
+      <c r="J9">
+        <v>4.8618647267187314E-10</v>
+      </c>
+      <c r="K9">
+        <v>6.9745372766456408E-10</v>
+      </c>
+      <c r="L9">
+        <v>2.3283196819606788E-8</v>
+      </c>
+      <c r="M9">
+        <v>3.8215574547041711</v>
+      </c>
+      <c r="N9">
+        <v>2.4576725070954859E-8</v>
+      </c>
+      <c r="O9">
+        <v>5030.7035169415976</v>
+      </c>
+      <c r="P9">
+        <v>1.005873584269752E-7</v>
+      </c>
+      <c r="Q9">
+        <v>1.6151941634656011</v>
+      </c>
+      <c r="R9">
+        <v>8619.370794639206</v>
+      </c>
+      <c r="S9">
+        <v>1.435928282773687</v>
+      </c>
+      <c r="T9">
+        <v>8101.3414665152604</v>
+      </c>
+      <c r="U9">
+        <v>1.490568892030453</v>
+      </c>
+      <c r="V9">
+        <v>1.5763522811126641E-7</v>
+      </c>
+      <c r="W9">
+        <v>393.91710625111892</v>
+      </c>
+      <c r="X9">
+        <v>6.6455034971591925E-10</v>
+      </c>
+      <c r="Y9">
+        <v>1.0605017521133409E-9</v>
+      </c>
+      <c r="Z9">
+        <v>3.95414646139298</v>
+      </c>
+      <c r="AA9">
+        <v>1.1795762176618899E-9</v>
+      </c>
+      <c r="AB9">
+        <v>1.035052928810315E-9</v>
+      </c>
+      <c r="AC9">
+        <v>2.2741086554390591E-7</v>
+      </c>
+      <c r="AD9">
+        <v>1.7406906613815721E-7</v>
+      </c>
+      <c r="AE9">
+        <v>1.310813072707538</v>
+      </c>
+      <c r="AF9">
+        <v>1.1000928951440769</v>
+      </c>
+      <c r="AG9">
+        <v>8.6485691070573027E-8</v>
+      </c>
+      <c r="AH9">
+        <v>1.101973696669821</v>
+      </c>
+      <c r="AI9">
+        <v>6.977676454689305E-8</v>
+      </c>
+      <c r="AJ9">
+        <v>1.322937828795838</v>
+      </c>
+      <c r="AK9">
+        <v>1.2207615547825681</v>
+      </c>
+      <c r="AL9">
+        <v>1.318158881816454</v>
+      </c>
+      <c r="AM9">
+        <v>1.0567404776187681</v>
+      </c>
+      <c r="AN9">
+        <v>3.3724988309203403E-7</v>
+      </c>
+      <c r="AO9">
+        <v>1.205425073898303</v>
+      </c>
+      <c r="AP9">
+        <v>3.7679564948602531E-7</v>
+      </c>
+      <c r="AQ9">
+        <v>1.2533123047838071</v>
+      </c>
+      <c r="AR9">
+        <v>1.368242606256699E-8</v>
+      </c>
+      <c r="AS9">
+        <v>4.7144836301527952E-7</v>
+      </c>
+      <c r="AT9">
+        <v>4.8260503338643166E-7</v>
+      </c>
+      <c r="AU9">
+        <v>0.96315415200807153</v>
+      </c>
+      <c r="AV9">
+        <v>1.013701453532738</v>
+      </c>
+      <c r="AW9">
+        <v>2.359210315982077E-11</v>
+      </c>
+      <c r="AX9">
+        <v>1.157882626344468E-8</v>
+      </c>
+      <c r="AY9">
+        <v>12061.11122483231</v>
+      </c>
+      <c r="AZ9">
+        <v>1.028388506717649</v>
+      </c>
+      <c r="BA9">
+        <v>7.4337327503026934E-8</v>
+      </c>
+      <c r="BB9">
+        <v>2.5714165733908419E-8</v>
+      </c>
+      <c r="BC9">
+        <v>1.52935127349954E-3</v>
+      </c>
+      <c r="BD9">
+        <v>3.6345318603053591E-8</v>
+      </c>
+      <c r="BE9">
+        <v>5.7016613631374467E-8</v>
+      </c>
+      <c r="BF9">
+        <v>4.718316856519583E-8</v>
+      </c>
+      <c r="BG9">
+        <v>1.1772075300378491</v>
+      </c>
+      <c r="BH9">
+        <v>1.0808927393909269</v>
+      </c>
+      <c r="BI9">
+        <v>4.9036727818215523E-8</v>
+      </c>
+      <c r="BJ9">
+        <v>1.0304843719484089</v>
+      </c>
+      <c r="BK9">
+        <v>7.0483188621018607E-8</v>
+      </c>
+      <c r="BL9">
+        <v>1.2832821763406589E-7</v>
+      </c>
+      <c r="BM9">
+        <v>6.9102381109517626E-8</v>
+      </c>
+      <c r="BN9">
+        <v>9.9211871728630149E-9</v>
+      </c>
+      <c r="BO9">
+        <v>1.148535272362827</v>
+      </c>
+      <c r="BP9">
+        <v>1.5738831349008859</v>
+      </c>
+      <c r="BQ9">
+        <v>1.194705160617338</v>
+      </c>
+      <c r="BR9">
+        <v>9791.6165385205622</v>
+      </c>
+      <c r="BS9">
+        <v>1.266008892620764</v>
+      </c>
+      <c r="BT9">
+        <v>1.958761201717293E-7</v>
+      </c>
+      <c r="BU9">
+        <v>3943.2408442031428</v>
+      </c>
+      <c r="BV9">
+        <v>1.346148008531771</v>
+      </c>
+      <c r="BW9">
+        <v>2.1026310698078871E-7</v>
+      </c>
+      <c r="BX9">
+        <v>2.2249703102278711E-7</v>
+      </c>
+      <c r="BY9">
+        <v>1.497936711251139</v>
+      </c>
+      <c r="BZ9">
+        <v>2.4431144760743</v>
+      </c>
+      <c r="CA9">
+        <v>1.444758913076817E-7</v>
+      </c>
+      <c r="CB9">
+        <v>1.141440136519204</v>
+      </c>
+      <c r="CC9">
+        <v>4.6308264777659306E-9</v>
+      </c>
+      <c r="CD9">
+        <v>4.3516315855445182E-9</v>
+      </c>
+      <c r="CE9">
+        <v>1.3137187134642789</v>
+      </c>
+      <c r="CF9">
+        <v>1.3578613058207349</v>
+      </c>
+      <c r="CG9">
+        <v>9.1677492987923569E-8</v>
+      </c>
+      <c r="CH9">
+        <v>1.438007394561083</v>
+      </c>
+      <c r="CI9">
+        <v>1.5625829135839611</v>
+      </c>
+      <c r="CJ9">
+        <v>1952.0658744616051</v>
+      </c>
+      <c r="CK9">
+        <v>1.38163651863398E-8</v>
+      </c>
+      <c r="CL9">
+        <v>1.2054472442452249E-7</v>
+      </c>
+      <c r="CM9">
+        <v>2.7787795330749642E-8</v>
+      </c>
+      <c r="CN9">
+        <v>1.026126291902772</v>
+      </c>
+      <c r="CO9">
+        <v>3.1356165324109181E-7</v>
+      </c>
+      <c r="CP9">
+        <v>8.2734531749076901</v>
+      </c>
+      <c r="CQ9">
+        <v>2.1681055113001499E-8</v>
+      </c>
+      <c r="CR9">
+        <v>1.225702290300875</v>
+      </c>
+      <c r="CS9">
+        <v>5.9289654732945931E-10</v>
+      </c>
+      <c r="CT9">
+        <v>629.87575712265311</v>
+      </c>
+      <c r="CU9">
+        <v>1.3824855485534859</v>
+      </c>
+      <c r="CV9">
+        <v>1.250828206145886</v>
+      </c>
+      <c r="CW9">
+        <v>1.2095717329274509</v>
+      </c>
+      <c r="CX9">
+        <v>1.0194641742833149E-7</v>
+      </c>
+      <c r="CY9">
+        <v>124.3039468428325</v>
       </c>
     </row>
   </sheetData>
@@ -9075,10 +9389,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AH8"/>
+  <dimension ref="A1:AH9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9917,6 +10231,110 @@
       </c>
       <c r="AH8">
         <v>1.062051763044374E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9">
+        <v>16.323204278945919</v>
+      </c>
+      <c r="C9">
+        <v>2.0535015586916591E-4</v>
+      </c>
+      <c r="D9">
+        <v>2.511676149347902E-5</v>
+      </c>
+      <c r="E9">
+        <v>1.0898689500431161E-4</v>
+      </c>
+      <c r="F9">
+        <v>1.394722434014028E-2</v>
+      </c>
+      <c r="G9">
+        <v>0.47632671565383911</v>
+      </c>
+      <c r="H9">
+        <v>2.486855873896866E-4</v>
+      </c>
+      <c r="I9">
+        <v>3.5592453641525282E-6</v>
+      </c>
+      <c r="J9">
+        <v>3.1256854676086011E-6</v>
+      </c>
+      <c r="K9">
+        <v>1.5840214458506991E-5</v>
+      </c>
+      <c r="L9">
+        <v>1.1068924160273499E-7</v>
+      </c>
+      <c r="M9">
+        <v>2.119773231231979E-4</v>
+      </c>
+      <c r="N9">
+        <v>2.9690338528874202E-6</v>
+      </c>
+      <c r="O9">
+        <v>2.1572227733680091E-4</v>
+      </c>
+      <c r="P9">
+        <v>2.642026624570716E-5</v>
+      </c>
+      <c r="Q9">
+        <v>1.3917354777616591E-2</v>
+      </c>
+      <c r="R9">
+        <v>0.44797682662003441</v>
+      </c>
+      <c r="S9">
+        <v>6.4468848309524678E-4</v>
+      </c>
+      <c r="T9">
+        <v>5.3060744994353368E-5</v>
+      </c>
+      <c r="U9">
+        <v>1.9718632635696811E-4</v>
+      </c>
+      <c r="V9">
+        <v>5.4129434125170109E-6</v>
+      </c>
+      <c r="W9">
+        <v>3.5805335554905258E-6</v>
+      </c>
+      <c r="X9">
+        <v>4.5588515362906902E-5</v>
+      </c>
+      <c r="Y9">
+        <v>8.7034676402095823E-6</v>
+      </c>
+      <c r="Z9">
+        <v>1.2730837336324181E-5</v>
+      </c>
+      <c r="AA9">
+        <v>1.796624232936736E-6</v>
+      </c>
+      <c r="AB9">
+        <v>1.5596029828617371E-5</v>
+      </c>
+      <c r="AC9">
+        <v>6.7137496912142598E-4</v>
+      </c>
+      <c r="AD9">
+        <v>1.343398537144649E-5</v>
+      </c>
+      <c r="AE9">
+        <v>1.6549589029532841E-4</v>
+      </c>
+      <c r="AF9">
+        <v>3.7677755243217627E-5</v>
+      </c>
+      <c r="AG9">
+        <v>3.5048928511233382E-5</v>
+      </c>
+      <c r="AH9">
+        <v>1.2138726728276289E-5</v>
       </c>
     </row>
   </sheetData>
@@ -9931,8 +10349,8 @@
   </sheetPr>
   <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10032,13 +10450,13 @@
         <v>1.399405661105621E-12</v>
       </c>
       <c r="I2" s="3">
-        <v>2.5036850034781481E-5</v>
+        <v>2.5036850034781501E-5</v>
       </c>
       <c r="J2" s="3">
-        <v>1.0574195593590939E-5</v>
+        <v>1.05741955935909E-5</v>
       </c>
       <c r="K2" s="3">
-        <v>2.753845781908526E-6</v>
+        <v>2.7538457819085298E-6</v>
       </c>
       <c r="L2" s="3">
         <v>1.0600772668780881E-6</v>
@@ -10471,10 +10889,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:V8"/>
+  <dimension ref="A1:V9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:V8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11025,6 +11443,74 @@
       </c>
       <c r="V8">
         <v>5.5681941796746903E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9">
+        <v>7.3527441024780273</v>
+      </c>
+      <c r="C9">
+        <v>0.17960595987672859</v>
+      </c>
+      <c r="D9">
+        <v>3.9408949199448333E-8</v>
+      </c>
+      <c r="E9">
+        <v>2.1966937881086841E-9</v>
+      </c>
+      <c r="F9">
+        <v>1.5536117231357181E-3</v>
+      </c>
+      <c r="G9">
+        <v>9.571019170930728E-2</v>
+      </c>
+      <c r="H9">
+        <v>8.4037831318497722E-2</v>
+      </c>
+      <c r="I9">
+        <v>0.1083694478107682</v>
+      </c>
+      <c r="J9">
+        <v>8.0204357884721702E-4</v>
+      </c>
+      <c r="K9">
+        <v>-3.4255159529278052E-10</v>
+      </c>
+      <c r="L9">
+        <v>3.4806344174468588E-2</v>
+      </c>
+      <c r="M9">
+        <v>0.21080508898595979</v>
+      </c>
+      <c r="N9">
+        <v>5.9610428525042752E-9</v>
+      </c>
+      <c r="O9">
+        <v>0.17527543880915769</v>
+      </c>
+      <c r="P9">
+        <v>2.1182628922361691E-10</v>
+      </c>
+      <c r="Q9">
+        <v>6.4770183611416732E-2</v>
+      </c>
+      <c r="R9">
+        <v>3.7516591220221051E-11</v>
+      </c>
+      <c r="S9">
+        <v>5.5618154865811703E-2</v>
+      </c>
+      <c r="T9">
+        <v>0.14204427448664439</v>
+      </c>
+      <c r="U9">
+        <v>2.88521189493391E-2</v>
+      </c>
+      <c r="V9">
+        <v>1.372760490828698E-2</v>
       </c>
     </row>
   </sheetData>
@@ -11037,10 +11523,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:V8"/>
+  <dimension ref="A1:V9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:V8"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11593,6 +12079,74 @@
         <v>1.9618698936745369E-3</v>
       </c>
     </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9">
+        <v>6.922816276550293</v>
+      </c>
+      <c r="C9">
+        <v>81.183189792583931</v>
+      </c>
+      <c r="D9">
+        <v>1.9774884739787859</v>
+      </c>
+      <c r="E9">
+        <v>4.4896227278720089E-10</v>
+      </c>
+      <c r="F9">
+        <v>10.620812838306231</v>
+      </c>
+      <c r="G9">
+        <v>2.2756473123800791E-8</v>
+      </c>
+      <c r="H9">
+        <v>2.3494806738817619E-7</v>
+      </c>
+      <c r="I9">
+        <v>3.7188754281260093E-8</v>
+      </c>
+      <c r="J9">
+        <v>1.5225622838896689E-7</v>
+      </c>
+      <c r="K9">
+        <v>7.0835975331240877E-9</v>
+      </c>
+      <c r="L9">
+        <v>1.33880453927602E-5</v>
+      </c>
+      <c r="M9">
+        <v>1.441302888047013E-7</v>
+      </c>
+      <c r="N9">
+        <v>2.207015210609193E-5</v>
+      </c>
+      <c r="O9">
+        <v>2.1165797719396819E-7</v>
+      </c>
+      <c r="P9">
+        <v>1.8577389504184069E-4</v>
+      </c>
+      <c r="Q9">
+        <v>3.7683329465073209E-6</v>
+      </c>
+      <c r="R9">
+        <v>4.2239061384034303E-6</v>
+      </c>
+      <c r="S9">
+        <v>2.360371119092947E-8</v>
+      </c>
+      <c r="T9">
+        <v>8.4823402582820644E-9</v>
+      </c>
+      <c r="U9">
+        <v>-3.8560999878806969E-10</v>
+      </c>
+      <c r="V9">
+        <v>3.6196198430636081E-6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/results/real_feature_importances.xlsx
+++ b/results/real_feature_importances.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/majidmohammadi/surfdrive/Research/GP/orthogonal-additive-gaussian-processes-main/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519418D7-B04C-A941-BFF3-3843044E07A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA9771F-5F81-484C-8E72-66F355FA54B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="500" windowWidth="35780" windowHeight="20320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60" yWindow="500" windowWidth="35780" windowHeight="20320" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sonar" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,25 @@
     <sheet name="keggdirected" sheetId="8" r:id="rId8"/>
     <sheet name="parkinson" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="132">
   <si>
     <t>Feature Selector</t>
   </si>
@@ -412,6 +425,18 @@
   </si>
   <si>
     <t>AGP-SHAP-SGPR</t>
+  </si>
+  <si>
+    <t>AGP-SHAP-200</t>
+  </si>
+  <si>
+    <t>AGP-SHAP-SGPR200</t>
+  </si>
+  <si>
+    <t>AGP-SHAP_SGPR200</t>
+  </si>
+  <si>
+    <t>AGP-SHAP-sGPR-20</t>
   </si>
 </sst>
 </file>
@@ -804,10 +829,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:BJ8"/>
+  <dimension ref="A1:BJ9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2319,6 +2344,69 @@
       <c r="BJ8">
         <v>1.0328166469684531E-2</v>
       </c>
+    </row>
+    <row r="9" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9"/>
+      <c r="X9"/>
+      <c r="Y9"/>
+      <c r="Z9"/>
+      <c r="AA9"/>
+      <c r="AB9"/>
+      <c r="AC9"/>
+      <c r="AD9"/>
+      <c r="AE9"/>
+      <c r="AF9"/>
+      <c r="AG9"/>
+      <c r="AH9"/>
+      <c r="AI9"/>
+      <c r="AJ9"/>
+      <c r="AK9"/>
+      <c r="AL9"/>
+      <c r="AM9"/>
+      <c r="AN9"/>
+      <c r="AO9"/>
+      <c r="AP9"/>
+      <c r="AQ9"/>
+      <c r="AR9"/>
+      <c r="AS9"/>
+      <c r="AT9"/>
+      <c r="AU9"/>
+      <c r="AV9"/>
+      <c r="AW9"/>
+      <c r="AX9"/>
+      <c r="AY9"/>
+      <c r="AZ9"/>
+      <c r="BA9"/>
+      <c r="BB9"/>
+      <c r="BC9"/>
+      <c r="BD9"/>
+      <c r="BE9"/>
+      <c r="BF9"/>
+      <c r="BG9"/>
+      <c r="BH9"/>
+      <c r="BI9"/>
+      <c r="BJ9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4884,10 +4972,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:CY9"/>
+  <dimension ref="A1:CY10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7693,6 +7781,317 @@
       </c>
       <c r="CY9">
         <v>124.3039468428325</v>
+      </c>
+    </row>
+    <row r="10" spans="1:103" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B10">
+        <v>5.211188793182373</v>
+      </c>
+      <c r="C10">
+        <v>1.1278073326041529E-24</v>
+      </c>
+      <c r="D10">
+        <v>3.7520732627736067E-23</v>
+      </c>
+      <c r="E10">
+        <v>4.9147876229919272E-25</v>
+      </c>
+      <c r="F10">
+        <v>3.3496141066050532E-25</v>
+      </c>
+      <c r="G10">
+        <v>6.3339102380666486E-33</v>
+      </c>
+      <c r="H10">
+        <v>5.9317334997988824E-34</v>
+      </c>
+      <c r="I10">
+        <v>9.5202943218649968E-25</v>
+      </c>
+      <c r="J10">
+        <v>3.3873215724134618E-33</v>
+      </c>
+      <c r="K10">
+        <v>1.3667385548041959E-24</v>
+      </c>
+      <c r="L10">
+        <v>1.4928313697790901E-24</v>
+      </c>
+      <c r="M10">
+        <v>1.2321508746531649E-31</v>
+      </c>
+      <c r="N10">
+        <v>3.666695818884715E-34</v>
+      </c>
+      <c r="O10">
+        <v>1.0618111939853159E-31</v>
+      </c>
+      <c r="P10">
+        <v>1.026277059930208E-24</v>
+      </c>
+      <c r="Q10">
+        <v>1.147628720457365E-24</v>
+      </c>
+      <c r="R10">
+        <v>5.1882099340593469E-25</v>
+      </c>
+      <c r="S10">
+        <v>1.4840879135364339E-24</v>
+      </c>
+      <c r="T10">
+        <v>3.7226868637234661E-32</v>
+      </c>
+      <c r="U10">
+        <v>1.34806682557957E-24</v>
+      </c>
+      <c r="V10">
+        <v>9.548937396762733E-32</v>
+      </c>
+      <c r="W10">
+        <v>5.6501033104911789E-25</v>
+      </c>
+      <c r="X10">
+        <v>4.8724917178452807E-25</v>
+      </c>
+      <c r="Y10">
+        <v>1.5055124512330651E-33</v>
+      </c>
+      <c r="Z10">
+        <v>1.6171329199459399E-24</v>
+      </c>
+      <c r="AA10">
+        <v>5.649354127024577E-33</v>
+      </c>
+      <c r="AB10">
+        <v>1.5155587674392901E-24</v>
+      </c>
+      <c r="AC10">
+        <v>6.5634051745555527E-25</v>
+      </c>
+      <c r="AD10">
+        <v>3.1177493271062059E-32</v>
+      </c>
+      <c r="AE10">
+        <v>1.4226729697967101E-32</v>
+      </c>
+      <c r="AF10">
+        <v>6.9326610610336572E-25</v>
+      </c>
+      <c r="AG10">
+        <v>6.5194091607944826E-25</v>
+      </c>
+      <c r="AH10">
+        <v>4.0349759334466729E-32</v>
+      </c>
+      <c r="AI10">
+        <v>1.4008420536858889E-32</v>
+      </c>
+      <c r="AJ10">
+        <v>1.422492728347002E-24</v>
+      </c>
+      <c r="AK10">
+        <v>1.466168057120781E-24</v>
+      </c>
+      <c r="AL10">
+        <v>9.6718618043828374E-25</v>
+      </c>
+      <c r="AM10">
+        <v>6.6682033649726689E-25</v>
+      </c>
+      <c r="AN10">
+        <v>1.6984649974713279E-32</v>
+      </c>
+      <c r="AO10">
+        <v>1.1164707959813139E-32</v>
+      </c>
+      <c r="AP10">
+        <v>3.0164224716103448E-32</v>
+      </c>
+      <c r="AQ10">
+        <v>7.9985157521702409E-25</v>
+      </c>
+      <c r="AR10">
+        <v>7.7205926526420429E-25</v>
+      </c>
+      <c r="AS10">
+        <v>3.7248023119897388E-32</v>
+      </c>
+      <c r="AT10">
+        <v>3.8554271819100857E-32</v>
+      </c>
+      <c r="AU10">
+        <v>3.7616042058102019E-32</v>
+      </c>
+      <c r="AV10">
+        <v>4.6843071192285683E-32</v>
+      </c>
+      <c r="AW10">
+        <v>1.1650271549538749E-24</v>
+      </c>
+      <c r="AX10">
+        <v>8.1615423235298456E-25</v>
+      </c>
+      <c r="AY10">
+        <v>5.7763321879156458E-25</v>
+      </c>
+      <c r="AZ10">
+        <v>4.1226626579333128E-32</v>
+      </c>
+      <c r="BA10">
+        <v>3.9353350440734862E-25</v>
+      </c>
+      <c r="BB10">
+        <v>6.7916669524112592E-25</v>
+      </c>
+      <c r="BC10">
+        <v>7.3065513836473196E-25</v>
+      </c>
+      <c r="BD10">
+        <v>8.2456122992482662E-25</v>
+      </c>
+      <c r="BE10">
+        <v>1.105286638481398E-24</v>
+      </c>
+      <c r="BF10">
+        <v>9.8709392663505883E-25</v>
+      </c>
+      <c r="BG10">
+        <v>6.0533663950624741E-34</v>
+      </c>
+      <c r="BH10">
+        <v>1.2830754962053629E-22</v>
+      </c>
+      <c r="BI10">
+        <v>2.0557150811956859E-34</v>
+      </c>
+      <c r="BJ10">
+        <v>6.9255042295522253E-25</v>
+      </c>
+      <c r="BK10">
+        <v>7.1897330047248188E-25</v>
+      </c>
+      <c r="BL10">
+        <v>1.206738283014544E-28</v>
+      </c>
+      <c r="BM10">
+        <v>7.3183220522032689E-25</v>
+      </c>
+      <c r="BN10">
+        <v>1.126619235234011E-24</v>
+      </c>
+      <c r="BO10">
+        <v>7.859752829251405E-34</v>
+      </c>
+      <c r="BP10">
+        <v>8.5881340312792617E-25</v>
+      </c>
+      <c r="BQ10">
+        <v>1.0357590193386479E-24</v>
+      </c>
+      <c r="BR10">
+        <v>8.9540735052204095E-25</v>
+      </c>
+      <c r="BS10">
+        <v>7.7132872458600515E-33</v>
+      </c>
+      <c r="BT10">
+        <v>6.9882586608752203E-34</v>
+      </c>
+      <c r="BU10">
+        <v>8.6564162147077645E-25</v>
+      </c>
+      <c r="BV10">
+        <v>9.7391927181503444E-25</v>
+      </c>
+      <c r="BW10">
+        <v>1.4367381200115511E-32</v>
+      </c>
+      <c r="BX10">
+        <v>5.4266691893398633E-25</v>
+      </c>
+      <c r="BY10">
+        <v>8.478530834387567E-25</v>
+      </c>
+      <c r="BZ10">
+        <v>1.136407601906976E-24</v>
+      </c>
+      <c r="CA10">
+        <v>2.277431874046928E-32</v>
+      </c>
+      <c r="CB10">
+        <v>2.284943791978239E-32</v>
+      </c>
+      <c r="CC10">
+        <v>1.8105393605387889E-33</v>
+      </c>
+      <c r="CD10">
+        <v>2.5790135524978501E-33</v>
+      </c>
+      <c r="CE10">
+        <v>2.5273167173158189E-33</v>
+      </c>
+      <c r="CF10">
+        <v>3.5994013963301312E-33</v>
+      </c>
+      <c r="CG10">
+        <v>1.4467083343244641E-32</v>
+      </c>
+      <c r="CH10">
+        <v>8.0402178285455797E-32</v>
+      </c>
+      <c r="CI10">
+        <v>9.8682307846542352E-32</v>
+      </c>
+      <c r="CJ10">
+        <v>1.153483735250839E-24</v>
+      </c>
+      <c r="CK10">
+        <v>8.2279035877341632E-33</v>
+      </c>
+      <c r="CL10">
+        <v>1.822362486973134E-32</v>
+      </c>
+      <c r="CM10">
+        <v>1.289967064273991E-24</v>
+      </c>
+      <c r="CN10">
+        <v>5.5033703690023338E-22</v>
+      </c>
+      <c r="CO10">
+        <v>4.7392821490588834E-25</v>
+      </c>
+      <c r="CP10">
+        <v>2.5394164852622941E-24</v>
+      </c>
+      <c r="CQ10">
+        <v>3.8439734651360269E-25</v>
+      </c>
+      <c r="CR10">
+        <v>7.1297679099846899E-25</v>
+      </c>
+      <c r="CS10">
+        <v>1.1899687279389489E-24</v>
+      </c>
+      <c r="CT10">
+        <v>6.0764092806828092E-25</v>
+      </c>
+      <c r="CU10">
+        <v>8.9754380442180245E-25</v>
+      </c>
+      <c r="CV10">
+        <v>8.9903764366524588E-25</v>
+      </c>
+      <c r="CW10">
+        <v>1.0195610594193941E-24</v>
+      </c>
+      <c r="CX10">
+        <v>5.625785384688116E-33</v>
+      </c>
+      <c r="CY10">
+        <v>3.4949879196610169E-32</v>
       </c>
     </row>
   </sheetData>
@@ -8511,15 +8910,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AI8"/>
+  <dimension ref="A1:AI9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
     <col min="2" max="35" width="13" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9377,6 +9776,113 @@
       </c>
       <c r="AI8">
         <v>1.994549386572889E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9">
+        <v>1.0454087257385249</v>
+      </c>
+      <c r="C9">
+        <v>1.094157874955236E-8</v>
+      </c>
+      <c r="D9">
+        <v>0.41386652633517063</v>
+      </c>
+      <c r="E9">
+        <v>1.456900255738086E-9</v>
+      </c>
+      <c r="F9">
+        <v>44.278668027535822</v>
+      </c>
+      <c r="G9">
+        <v>28.48191209561276</v>
+      </c>
+      <c r="H9">
+        <v>1.1190239198848441E-9</v>
+      </c>
+      <c r="I9">
+        <v>5.9713489436272553</v>
+      </c>
+      <c r="J9">
+        <v>1.73718074573657E-10</v>
+      </c>
+      <c r="K9">
+        <v>19.441232064417111</v>
+      </c>
+      <c r="L9">
+        <v>1.013672721632223E-10</v>
+      </c>
+      <c r="M9">
+        <v>9.2653328044333563</v>
+      </c>
+      <c r="N9">
+        <v>1.550130873443469E-9</v>
+      </c>
+      <c r="O9">
+        <v>1.629642085616652E-9</v>
+      </c>
+      <c r="P9">
+        <v>3.1178014656367838</v>
+      </c>
+      <c r="Q9">
+        <v>1.0363339429039551</v>
+      </c>
+      <c r="R9">
+        <v>4.4677559004824952</v>
+      </c>
+      <c r="S9">
+        <v>7.3896499579808456E-10</v>
+      </c>
+      <c r="T9">
+        <v>7.6819551354312078E-10</v>
+      </c>
+      <c r="U9">
+        <v>2.058703506083366E-9</v>
+      </c>
+      <c r="V9">
+        <v>40.448414813479637</v>
+      </c>
+      <c r="W9">
+        <v>1.121581308757415E-10</v>
+      </c>
+      <c r="X9">
+        <v>2.1973532942013571E-9</v>
+      </c>
+      <c r="Y9">
+        <v>1.1514437148138041E-10</v>
+      </c>
+      <c r="Z9">
+        <v>6.904376374550095</v>
+      </c>
+      <c r="AA9">
+        <v>2.7077489550583229E-10</v>
+      </c>
+      <c r="AB9">
+        <v>1.205685280811973E-10</v>
+      </c>
+      <c r="AC9">
+        <v>46.386656130118702</v>
+      </c>
+      <c r="AD9">
+        <v>1.8349064907391519E-10</v>
+      </c>
+      <c r="AE9">
+        <v>1.078356464379097E-9</v>
+      </c>
+      <c r="AF9">
+        <v>2.8048628331788622E-10</v>
+      </c>
+      <c r="AG9">
+        <v>1.115310808772751</v>
+      </c>
+      <c r="AH9">
+        <v>2.1002023486821298E-9</v>
+      </c>
+      <c r="AI9">
+        <v>14.760000192634051</v>
       </c>
     </row>
   </sheetData>
@@ -9391,8 +9897,8 @@
   </sheetPr>
   <dimension ref="A1:AH9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10235,106 +10741,106 @@
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>127</v>
+        <v>22</v>
       </c>
       <c r="B9">
-        <v>16.323204278945919</v>
+        <v>1.2146792411804199</v>
       </c>
       <c r="C9">
-        <v>2.0535015586916591E-4</v>
+        <v>7.0094193796362933E-13</v>
       </c>
       <c r="D9">
-        <v>2.511676149347902E-5</v>
+        <v>0.11931019916677708</v>
       </c>
       <c r="E9">
-        <v>1.0898689500431161E-4</v>
+        <v>2.6863664085376147E-3</v>
       </c>
       <c r="F9">
-        <v>1.394722434014028E-2</v>
+        <v>2.3492870255966495E-12</v>
       </c>
       <c r="G9">
-        <v>0.47632671565383911</v>
+        <v>1.9312961443952801E-3</v>
       </c>
       <c r="H9">
-        <v>2.486855873896866E-4</v>
+        <v>2.684503335018123E-12</v>
       </c>
       <c r="I9">
-        <v>3.5592453641525282E-6</v>
+        <v>1.2331797919021994E-12</v>
       </c>
       <c r="J9">
-        <v>3.1256854676086011E-6</v>
+        <v>2.5891045436181547E-5</v>
       </c>
       <c r="K9">
-        <v>1.5840214458506991E-5</v>
+        <v>1.1266534716959806E-12</v>
       </c>
       <c r="L9">
-        <v>1.1068924160273499E-7</v>
+        <v>4.4814755718567946E-5</v>
       </c>
       <c r="M9">
-        <v>2.119773231231979E-4</v>
+        <v>1.0169348302303952E-12</v>
       </c>
       <c r="N9">
-        <v>2.9690338528874202E-6</v>
+        <v>0.10491330748525723</v>
       </c>
       <c r="O9">
-        <v>2.1572227733680091E-4</v>
+        <v>0.16899221179578278</v>
       </c>
       <c r="P9">
-        <v>2.642026624570716E-5</v>
+        <v>1.7528531750022398E-10</v>
       </c>
       <c r="Q9">
-        <v>1.3917354777616591E-2</v>
+        <v>1.8692157745567577E-10</v>
       </c>
       <c r="R9">
-        <v>0.44797682662003441</v>
+        <v>1.0219016712710858E-12</v>
       </c>
       <c r="S9">
-        <v>6.4468848309524678E-4</v>
+        <v>0.17388464958192715</v>
       </c>
       <c r="T9">
-        <v>5.3060744994353368E-5</v>
+        <v>9.6923596436013424E-9</v>
       </c>
       <c r="U9">
-        <v>1.9718632635696811E-4</v>
+        <v>3.5365286203102124E-11</v>
       </c>
       <c r="V9">
-        <v>5.4129434125170109E-6</v>
+        <v>0.21643612300505102</v>
       </c>
       <c r="W9">
-        <v>3.5805335554905258E-6</v>
+        <v>2.3625504340378353E-12</v>
       </c>
       <c r="X9">
-        <v>4.5588515362906902E-5</v>
+        <v>5.6854606960189138E-4</v>
       </c>
       <c r="Y9">
-        <v>8.7034676402095823E-6</v>
+        <v>1.191963950717175E-12</v>
       </c>
       <c r="Z9">
-        <v>1.2730837336324181E-5</v>
+        <v>7.733344929467716E-3</v>
       </c>
       <c r="AA9">
-        <v>1.796624232936736E-6</v>
+        <v>8.7150542070876548E-12</v>
       </c>
       <c r="AB9">
-        <v>1.5596029828617371E-5</v>
+        <v>6.0993306092574964E-13</v>
       </c>
       <c r="AC9">
-        <v>6.7137496912142598E-4</v>
+        <v>1.8268989154908899E-9</v>
       </c>
       <c r="AD9">
-        <v>1.343398537144649E-5</v>
+        <v>1.0717963862628412E-12</v>
       </c>
       <c r="AE9">
-        <v>1.6549589029532841E-4</v>
+        <v>1.9189538671627879E-12</v>
       </c>
       <c r="AF9">
-        <v>3.7677755243217627E-5</v>
+        <v>3.309140712406697E-9</v>
       </c>
       <c r="AG9">
-        <v>3.5048928511233382E-5</v>
+        <v>0.20347323435886863</v>
       </c>
       <c r="AH9">
-        <v>1.2138726728276289E-5</v>
+        <v>1.2037094308345996E-12</v>
       </c>
     </row>
   </sheetData>
@@ -10347,10 +10853,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:U8"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10877,6 +11383,71 @@
       </c>
       <c r="U8">
         <v>2.015644772444574E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9">
+        <v>0.70096635818481445</v>
+      </c>
+      <c r="C9">
+        <v>3.7288285719057252E-5</v>
+      </c>
+      <c r="D9">
+        <v>9.5346609538538019E-4</v>
+      </c>
+      <c r="E9">
+        <v>9.1978216503918031E-12</v>
+      </c>
+      <c r="F9">
+        <v>4.022219262037376E-14</v>
+      </c>
+      <c r="G9">
+        <v>4.5477132812085367E-11</v>
+      </c>
+      <c r="H9">
+        <v>1.146754603837817E-6</v>
+      </c>
+      <c r="I9">
+        <v>2.231748107188468E-7</v>
+      </c>
+      <c r="J9">
+        <v>7.3499262359505291E-5</v>
+      </c>
+      <c r="K9">
+        <v>3.4383312571856892E-5</v>
+      </c>
+      <c r="L9">
+        <v>8.5002397729260013E-4</v>
+      </c>
+      <c r="M9">
+        <v>2.4297960073653282E-12</v>
+      </c>
+      <c r="N9">
+        <v>6.7121146972610969E-3</v>
+      </c>
+      <c r="O9">
+        <v>2.9844728375497669E-2</v>
+      </c>
+      <c r="P9">
+        <v>1.8110002861517351E-2</v>
+      </c>
+      <c r="Q9">
+        <v>3.9104849432357626E-3</v>
+      </c>
+      <c r="R9">
+        <v>3.7389032337226301E-12</v>
+      </c>
+      <c r="S9">
+        <v>4.5759523244206992E-7</v>
+      </c>
+      <c r="T9">
+        <v>2.6594984250146711E-4</v>
+      </c>
+      <c r="U9">
+        <v>3.5966756518270189E-5</v>
       </c>
     </row>
   </sheetData>
@@ -10892,7 +11463,7 @@
   <dimension ref="A1:V9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11447,70 +12018,70 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B9">
-        <v>7.3527441024780273</v>
+        <v>0.76962041854858398</v>
       </c>
       <c r="C9">
-        <v>0.17960595987672859</v>
+        <v>0.36752643356456038</v>
       </c>
       <c r="D9">
-        <v>3.9408949199448333E-8</v>
+        <v>-5.7600255893760544E-9</v>
       </c>
       <c r="E9">
-        <v>2.1966937881086841E-9</v>
+        <v>1.1832982332546059E-3</v>
       </c>
       <c r="F9">
-        <v>1.5536117231357181E-3</v>
+        <v>1.73436636017207E-5</v>
       </c>
       <c r="G9">
-        <v>9.571019170930728E-2</v>
+        <v>2.7856854468781281E-2</v>
       </c>
       <c r="H9">
-        <v>8.4037831318497722E-2</v>
+        <v>1.1025724475228741E-7</v>
       </c>
       <c r="I9">
-        <v>0.1083694478107682</v>
+        <v>0.41561644893400868</v>
       </c>
       <c r="J9">
-        <v>8.0204357884721702E-4</v>
+        <v>3.346869061490629E-6</v>
       </c>
       <c r="K9">
-        <v>-3.4255159529278052E-10</v>
+        <v>3.1809158894998721E-7</v>
       </c>
       <c r="L9">
-        <v>3.4806344174468588E-2</v>
+        <v>4.5177496904319059E-6</v>
       </c>
       <c r="M9">
-        <v>0.21080508898595979</v>
+        <v>-8.0034622308194546E-8</v>
       </c>
       <c r="N9">
-        <v>5.9610428525042752E-9</v>
+        <v>1.2888526280667709E-6</v>
       </c>
       <c r="O9">
-        <v>0.17527543880915769</v>
+        <v>6.050341614919207E-4</v>
       </c>
       <c r="P9">
-        <v>2.1182628922361691E-10</v>
+        <v>-7.4663996842649772E-9</v>
       </c>
       <c r="Q9">
-        <v>6.4770183611416732E-2</v>
+        <v>2.7001687456161381E-4</v>
       </c>
       <c r="R9">
-        <v>3.7516591220221051E-11</v>
+        <v>1.061871187141993</v>
       </c>
       <c r="S9">
-        <v>5.5618154865811703E-2</v>
+        <v>8.3349673685948773E-3</v>
       </c>
       <c r="T9">
-        <v>0.14204427448664439</v>
+        <v>3.8814096975200161E-6</v>
       </c>
       <c r="U9">
-        <v>2.88521189493391E-2</v>
+        <v>6.0660767980984841E-3</v>
       </c>
       <c r="V9">
-        <v>1.372760490828698E-2</v>
+        <v>6.2118760475073529E-5</v>
       </c>
     </row>
   </sheetData>
@@ -11523,10 +12094,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:V9"/>
+  <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12147,6 +12718,74 @@
         <v>3.6196198430636081E-6</v>
       </c>
     </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10">
+        <v>0.6254122257232666</v>
+      </c>
+      <c r="C10">
+        <v>40.620180441146623</v>
+      </c>
+      <c r="D10">
+        <v>52.322927789832903</v>
+      </c>
+      <c r="E10">
+        <v>17.82345017850491</v>
+      </c>
+      <c r="F10">
+        <v>3.3189637783967938</v>
+      </c>
+      <c r="G10">
+        <v>4.003404058057947E-6</v>
+      </c>
+      <c r="H10">
+        <v>3.081751668369078E-6</v>
+      </c>
+      <c r="I10">
+        <v>4.8270131854949641E-6</v>
+      </c>
+      <c r="J10">
+        <v>3.9696187546257686E-6</v>
+      </c>
+      <c r="K10">
+        <v>4.816292470573094E-6</v>
+      </c>
+      <c r="L10">
+        <v>1.801283193579167E-6</v>
+      </c>
+      <c r="M10">
+        <v>1.6999590606483211E-6</v>
+      </c>
+      <c r="N10">
+        <v>2.0921259841241298E-6</v>
+      </c>
+      <c r="O10">
+        <v>1.689767307087273E-6</v>
+      </c>
+      <c r="P10">
+        <v>1.5660983947465869E-6</v>
+      </c>
+      <c r="Q10">
+        <v>2.053605206556835E-6</v>
+      </c>
+      <c r="R10">
+        <v>2.069495324629541E-6</v>
+      </c>
+      <c r="S10">
+        <v>2.7964905089475811E-3</v>
+      </c>
+      <c r="T10">
+        <v>2.2822422868797172E-6</v>
+      </c>
+      <c r="U10">
+        <v>3.4887643620374008E-6</v>
+      </c>
+      <c r="V10">
+        <v>3.4937806323244648E-6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/results/real_feature_importances.xlsx
+++ b/results/real_feature_importances.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/majidmohammadi/surfdrive/Research/GP/orthogonal-additive-gaussian-processes-main/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA9771F-5F81-484C-8E72-66F355FA54B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{461EA7C6-B29C-3D4D-A3BC-07D1268B7DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="500" windowWidth="35780" windowHeight="20320" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60" yWindow="500" windowWidth="35780" windowHeight="20320" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sonar" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="186">
   <si>
     <t>Feature Selector</t>
   </si>
@@ -437,13 +437,175 @@
   </si>
   <si>
     <t>AGP-SHAP-sGPR-20</t>
+  </si>
+  <si>
+    <t>0.00189</t>
+  </si>
+  <si>
+    <t>0.00338</t>
+  </si>
+  <si>
+    <t>0.00072</t>
+  </si>
+  <si>
+    <t>0.00238</t>
+  </si>
+  <si>
+    <t>0.00366</t>
+  </si>
+  <si>
+    <t>0.00198</t>
+  </si>
+  <si>
+    <t>0.00186</t>
+  </si>
+  <si>
+    <t>0.00922</t>
+  </si>
+  <si>
+    <t>0.02335</t>
+  </si>
+  <si>
+    <t>0.03481</t>
+  </si>
+  <si>
+    <t>0.34078</t>
+  </si>
+  <si>
+    <t>0.06702</t>
+  </si>
+  <si>
+    <t>0.01943</t>
+  </si>
+  <si>
+    <t>0.00468</t>
+  </si>
+  <si>
+    <t>0.00165</t>
+  </si>
+  <si>
+    <t>0.00173</t>
+  </si>
+  <si>
+    <t>0.00075</t>
+  </si>
+  <si>
+    <t>0.0004</t>
+  </si>
+  <si>
+    <t>0.00251</t>
+  </si>
+  <si>
+    <t>0.00708</t>
+  </si>
+  <si>
+    <t>0.00657</t>
+  </si>
+  <si>
+    <t>0.00674</t>
+  </si>
+  <si>
+    <t>0.00102</t>
+  </si>
+  <si>
+    <t>0.00048</t>
+  </si>
+  <si>
+    <t>0.00047</t>
+  </si>
+  <si>
+    <t>0.00055</t>
+  </si>
+  <si>
+    <t>0.00246</t>
+  </si>
+  <si>
+    <t>0.00003</t>
+  </si>
+  <si>
+    <t>0.00006</t>
+  </si>
+  <si>
+    <t>0.00049</t>
+  </si>
+  <si>
+    <t>0.00292</t>
+  </si>
+  <si>
+    <t>0.00307</t>
+  </si>
+  <si>
+    <t>0.01291</t>
+  </si>
+  <si>
+    <t>0.04574</t>
+  </si>
+  <si>
+    <t>0.01015</t>
+  </si>
+  <si>
+    <t>0.00041</t>
+  </si>
+  <si>
+    <t>0.00017</t>
+  </si>
+  <si>
+    <t>0.00163</t>
+  </si>
+  <si>
+    <t>0.0188</t>
+  </si>
+  <si>
+    <t>0.02606</t>
+  </si>
+  <si>
+    <t>0.15124</t>
+  </si>
+  <si>
+    <t>0.11587</t>
+  </si>
+  <si>
+    <t>0.03346</t>
+  </si>
+  <si>
+    <t>0.00749</t>
+  </si>
+  <si>
+    <t>0.01162</t>
+  </si>
+  <si>
+    <t>0.00111</t>
+  </si>
+  <si>
+    <t>0.00452</t>
+  </si>
+  <si>
+    <t>0.00031</t>
+  </si>
+  <si>
+    <t>0.00005</t>
+  </si>
+  <si>
+    <t>0.00002</t>
+  </si>
+  <si>
+    <t>0.00133</t>
+  </si>
+  <si>
+    <t>0.0005</t>
+  </si>
+  <si>
+    <t>0.00042</t>
+  </si>
+  <si>
+    <t>AGP-SHAP2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -462,6 +624,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Monaco"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -507,7 +675,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -524,6 +692,7 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -829,10 +998,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:BJ9"/>
+  <dimension ref="A1:BJ21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2346,67 +2515,195 @@
       </c>
     </row>
     <row r="9" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9"/>
-      <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9"/>
-      <c r="O9"/>
-      <c r="P9"/>
-      <c r="Q9"/>
-      <c r="R9"/>
-      <c r="S9"/>
-      <c r="T9"/>
-      <c r="U9"/>
-      <c r="V9"/>
-      <c r="W9"/>
-      <c r="X9"/>
-      <c r="Y9"/>
-      <c r="Z9"/>
-      <c r="AA9"/>
-      <c r="AB9"/>
-      <c r="AC9"/>
-      <c r="AD9"/>
-      <c r="AE9"/>
-      <c r="AF9"/>
-      <c r="AG9"/>
-      <c r="AH9"/>
-      <c r="AI9"/>
-      <c r="AJ9"/>
-      <c r="AK9"/>
-      <c r="AL9"/>
-      <c r="AM9"/>
-      <c r="AN9"/>
-      <c r="AO9"/>
-      <c r="AP9"/>
-      <c r="AQ9"/>
-      <c r="AR9"/>
-      <c r="AS9"/>
-      <c r="AT9"/>
-      <c r="AU9"/>
-      <c r="AV9"/>
-      <c r="AW9"/>
-      <c r="AX9"/>
-      <c r="AY9"/>
-      <c r="AZ9"/>
-      <c r="BA9"/>
-      <c r="BB9"/>
-      <c r="BC9"/>
-      <c r="BD9"/>
-      <c r="BE9"/>
-      <c r="BF9"/>
-      <c r="BG9"/>
-      <c r="BH9"/>
-      <c r="BI9"/>
-      <c r="BJ9"/>
+      <c r="A9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1.968963146209717</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="T9" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="V9" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="W9" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="X9" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y9" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z9" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA9" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB9" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC9" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD9" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE9" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="AF9" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="AG9" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="AH9" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="AI9" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="AJ9" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="AK9" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="AL9" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="AM9" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="AN9" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="AO9" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="AP9" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="AQ9" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="AR9" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="AS9" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="AT9" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="AU9" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="AV9" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="AW9" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="AX9" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="AY9" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="AZ9" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="BA9" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="BB9" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="BC9" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="BD9" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="BE9" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="BF9" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="BG9" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="BH9" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="BI9" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="BJ9" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B21" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8104,10 +8401,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AF8"/>
+  <dimension ref="A1:AF10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:AF8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8899,6 +9196,137 @@
       <c r="AF8">
         <v>1.15453301593627E-2</v>
       </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9">
+        <v>5.405728816986084</v>
+      </c>
+      <c r="C9">
+        <v>4.4322927900622623E-2</v>
+      </c>
+      <c r="D9">
+        <v>3.2202900863950341E-2</v>
+      </c>
+      <c r="E9">
+        <v>4.7415936218857237E-2</v>
+      </c>
+      <c r="F9">
+        <v>4.4573278698184587E-2</v>
+      </c>
+      <c r="G9">
+        <v>2.968080763046203E-2</v>
+      </c>
+      <c r="H9">
+        <v>2.6060730848317629E-2</v>
+      </c>
+      <c r="I9">
+        <v>3.236165036770125E-2</v>
+      </c>
+      <c r="J9">
+        <v>3.7369987183966287E-2</v>
+      </c>
+      <c r="K9">
+        <v>3.9400675767848913E-2</v>
+      </c>
+      <c r="L9">
+        <v>1.9365651682683029E-2</v>
+      </c>
+      <c r="M9">
+        <v>4.0807004425603352E-2</v>
+      </c>
+      <c r="N9">
+        <v>1.32477242655872E-2</v>
+      </c>
+      <c r="O9">
+        <v>4.9637111077099338E-2</v>
+      </c>
+      <c r="P9">
+        <v>3.8080157311076973E-2</v>
+      </c>
+      <c r="Q9">
+        <v>4.4290294987936157E-2</v>
+      </c>
+      <c r="R9">
+        <v>3.9471115905548207E-2</v>
+      </c>
+      <c r="S9">
+        <v>2.873759849644051E-2</v>
+      </c>
+      <c r="T9">
+        <v>3.8965610755129193E-2</v>
+      </c>
+      <c r="U9">
+        <v>3.3649042263578642E-2</v>
+      </c>
+      <c r="V9">
+        <v>2.8176700205177908E-2</v>
+      </c>
+      <c r="W9">
+        <v>3.7356917607547613E-2</v>
+      </c>
+      <c r="X9">
+        <v>1.8968934575650739E-2</v>
+      </c>
+      <c r="Y9">
+        <v>3.9907758856736142E-2</v>
+      </c>
+      <c r="Z9">
+        <v>3.786017906509289E-2</v>
+      </c>
+      <c r="AA9">
+        <v>2.180154369627758E-2</v>
+      </c>
+      <c r="AB9">
+        <v>3.1080520341109381E-2</v>
+      </c>
+      <c r="AC9">
+        <v>3.3060412545497721E-2</v>
+      </c>
+      <c r="AD9">
+        <v>2.7295553795550011E-2</v>
+      </c>
+      <c r="AE9">
+        <v>2.4056028786883541E-2</v>
+      </c>
+      <c r="AF9">
+        <v>2.079524387388311E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
+      <c r="W10"/>
+      <c r="X10"/>
+      <c r="Y10"/>
+      <c r="Z10"/>
+      <c r="AA10"/>
+      <c r="AB10"/>
+      <c r="AC10"/>
+      <c r="AD10"/>
+      <c r="AE10"/>
+      <c r="AF10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9897,7 +10325,7 @@
   </sheetPr>
   <dimension ref="A1:AH9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
